--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24/08/2023 12:40</t>
+          <t>24/08/2023 12:41</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.68</v>
+        <v>4.07</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>25/08/2023 20:36</t>
+          <t>25/08/2023 20:38</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.07</v>
+        <v>3.44</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24/08/2023 12:40</t>
+          <t>24/08/2023 12:41</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.41</v>
+        <v>3.21</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>25/08/2023 20:36</t>
+          <t>25/08/2023 20:37</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>24/08/2023 12:40</t>
+          <t>24/08/2023 12:41</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>25/08/2023 20:36</t>
+          <t>25/08/2023 20:38</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-connahs-q/vofdmhsh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-penybont/M9q1nCdb/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>2.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>24/08/2023 12:41</t>
+          <t>24/08/2023 12:40</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.07</v>
+        <v>2.68</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>25/08/2023 20:38</t>
+          <t>25/08/2023 20:36</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.44</v>
+        <v>3.07</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>24/08/2023 12:41</t>
+          <t>24/08/2023 12:40</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>25/08/2023 20:37</t>
+          <t>25/08/2023 20:36</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.87</v>
+        <v>2.52</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>24/08/2023 12:41</t>
+          <t>24/08/2023 12:40</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>25/08/2023 20:38</t>
+          <t>25/08/2023 20:36</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-penybont/M9q1nCdb/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-connahs-q/vofdmhsh/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>20.77</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.62</v>
+        <v>27.47</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.25</v>
+        <v>26.13</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.8</v>
+        <v>38.82</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>20.77</v>
+        <v>3.52</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>27.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>26.13</v>
+        <v>2.84</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>38.82</v>
+        <v>3.07</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.84</v>
+        <v>4.25</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.07</v>
+        <v>4.8</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.65</v>
+        <v>2.07</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.16</v>
+        <v>3.27</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.16</v>
+        <v>3.35</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.87</v>
+        <v>3.12</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>3.61</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.07</v>
+        <v>2.64</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.12</v>
+        <v>2.79</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.61</v>
+        <v>2.53</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Haverfordwest</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.52</v>
+        <v>3.16</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.44</v>
+        <v>2.31</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>2.43</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>09/09/2023 11:10</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.06</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 13:33</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.85</v>
+        <v>2.78</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>9.76</v>
+        <v>2.85</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.31</v>
+        <v>4.25</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>5.47</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.25</v>
+        <v>3.73</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>09/09/2023 13:33</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.78</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.85</v>
+        <v>1.57</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>4.25</v>
+        <v>2.98</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5.47</v>
+        <v>4.2</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.73</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.2</v>
+        <v>3.83</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.98</v>
+        <v>1.44</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.2</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 11:10</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.35</v>
+        <v>4.25</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.83</v>
+        <v>5.06</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.14</v>
+        <v>5.85</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.79</v>
+        <v>9.76</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>16.08</v>
+        <v>2.08</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>14.33</v>
+        <v>2.05</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>10.4</v>
+        <v>3.48</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>9.050000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.08</v>
+        <v>3.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.14</v>
+        <v>3.48</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.08</v>
+        <v>16.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.05</v>
+        <v>14.33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.48</v>
+        <v>10.4</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.55</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.09</v>
+        <v>1.08</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.48</v>
+        <v>1.14</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.34</v>
+        <v>2.87</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>4.16</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.03</v>
+        <v>2.07</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>4.07</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.43</v>
+        <v>3.24</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.16</v>
+        <v>3.78</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 13:32</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.08</v>
+        <v>1.71</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>4.07</v>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:11</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>29/09/2023 02:42</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>30/09/2023 13:32</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
       <c r="T56" t="n">
-        <v>1.83</v>
+        <v>4.89</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 14:38</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.71</v>
+        <v>2.34</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.07</v>
+        <v>2.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.89</v>
+        <v>3.03</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:38</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,190 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-penybont/233G13Ja/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45205.86458333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-barry-town/80vGM4eP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45205.875</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:54</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-connahs-q/6e0XcLIO/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.54</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.57</v>
+        <v>4.22</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.67</v>
+        <v>4.17</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.61</v>
+        <v>7.45</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>2.54</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.22</v>
+        <v>3.57</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.17</v>
+        <v>2.67</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>7.45</v>
+        <v>2.61</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.32</v>
+        <v>3.97</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.21</v>
+        <v>4.84</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.09</v>
+        <v>6.18</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.89</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.97</v>
+        <v>3.32</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.84</v>
+        <v>4.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.18</v>
+        <v>5.09</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.43</v>
+        <v>4.2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>09/09/2023 13:33</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.85</v>
+        <v>1.79</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
       <c r="J32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>09/09/2023 11:10</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>4.25</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>07/09/2023 09:14</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>09/09/2023 15:23</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>09/09/2023 15:24</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>07/09/2023 09:14</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>09/09/2023 15:23</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:14</t>
-        </is>
-      </c>
       <c r="T32" t="n">
-        <v>1.57</v>
+        <v>9.76</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.98</v>
+        <v>4.25</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,48 +3448,48 @@
         </is>
       </c>
       <c r="L33" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>09/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>4.2</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>09/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>09/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>07/09/2023 09:14</t>
         </is>
       </c>
-      <c r="P33" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>09/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R33" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:14</t>
-        </is>
-      </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.44</v>
+        <v>2.31</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.32</v>
+        <v>2.43</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 11:10</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.06</v>
+        <v>3.4</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 13:33</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.85</v>
+        <v>2.78</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>9.76</v>
+        <v>2.85</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.51</v>
+        <v>5.62</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>5.32</v>
+        <v>7.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.32</v>
+        <v>8.17</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>9.220000000000001</v>
+        <v>15.32</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.48</v>
+        <v>4.51</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.55</v>
+        <v>5.32</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.09</v>
+        <v>6.32</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.17</v>
+        <v>2.05</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>5.62</v>
+        <v>3.48</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>7.34</v>
+        <v>3.55</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>8.17</v>
+        <v>3.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>15.32</v>
+        <v>3.48</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,282 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-connahs-q/6e0XcLIO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>4</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>1.88</v>
+        <v>6.81</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.98</v>
+        <v>11.14</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.54</v>
+        <v>4.78</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.05</v>
+        <v>6.56</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.46</v>
+        <v>1.34</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.26</v>
+        <v>1.22</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>6.81</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>11.14</v>
+        <v>1.98</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.78</v>
+        <v>3.54</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>6.56</v>
+        <v>4.05</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.34</v>
+        <v>3.46</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,108 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.22</v>
+        <v>3.26</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45206.76041666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:06</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:06</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-haverfordwest/vkEfFMma/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>2.54</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.22</v>
+        <v>3.57</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.17</v>
+        <v>2.67</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>7.45</v>
+        <v>2.61</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 20:36</t>
+          <t>18/08/2023 19:47</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.54</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.57</v>
+        <v>4.22</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.67</v>
+        <v>4.17</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.61</v>
+        <v>7.45</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:47</t>
+          <t>18/08/2023 20:36</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-newtown/d60wXWdB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-haverfordwest/UJboVARN/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.71</v>
+        <v>16.08</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.15</v>
+        <v>14.33</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.15</v>
+        <v>10.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.26</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:47</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.41</v>
+        <v>1.08</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.17</v>
+        <v>2.05</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5.62</v>
+        <v>3.48</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7.34</v>
+        <v>3.55</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.17</v>
+        <v>3.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>15.32</v>
+        <v>3.48</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.51</v>
+        <v>5.62</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>5.32</v>
+        <v>7.34</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>6.32</v>
+        <v>8.17</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>9.220000000000001</v>
+        <v>15.32</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>16.08</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>14.33</v>
+        <v>1.32</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>10.4</v>
+        <v>4.51</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>9.050000000000001</v>
+        <v>5.32</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.08</v>
+        <v>6.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.14</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.05</v>
+        <v>3.15</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 18:47</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>2.41</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.48</v>
+        <v>2.28</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>4</v>
-      </c>
       <c r="J62" t="n">
-        <v>6.81</v>
+        <v>1.42</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>11.14</v>
+        <v>1.63</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.78</v>
+        <v>4.34</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>6.56</v>
+        <v>4.12</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.34</v>
+        <v>6.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.22</v>
+        <v>4.98</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.42</v>
+        <v>1.88</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.34</v>
+        <v>3.54</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.29</v>
+        <v>3.46</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.98</v>
+        <v>3.26</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>4</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>6.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.98</v>
+        <v>11.14</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.54</v>
+        <v>4.78</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.05</v>
+        <v>6.56</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.46</v>
+        <v>1.34</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.26</v>
+        <v>1.22</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,374 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-haverfordwest/vkEfFMma/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45216.86458333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45216.86458333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45216.86458333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>16/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45216.86458333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>17/10/2023 18:49</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>16/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>17/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.92</v>
+        <v>3.08</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.03</v>
+        <v>3.41</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.29</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>4.03</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.49</v>
+        <v>3.27</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.94</v>
+        <v>3.34</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.48</v>
+        <v>2.21</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>7.81</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
         </is>
       </c>
     </row>
@@ -941,62 +941,62 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.08</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.41</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.29</v>
+        <v>5.49</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.29</v>
+        <v>4.94</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.16</v>
+        <v>8.48</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.17</v>
+        <v>7.81</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>14.92</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.56</v>
+        <v>24.8</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.89</v>
+        <v>10.28</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.97</v>
+        <v>13.41</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.84</v>
+        <v>1.11</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.18</v>
+        <v>1.08</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.92</v>
+        <v>1.73</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>24.8</v>
+        <v>1.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>10.28</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>13.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.11</v>
+        <v>4.21</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.08</v>
+        <v>5.09</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.32</v>
+        <v>3.97</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.21</v>
+        <v>4.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.09</v>
+        <v>6.18</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>1.44</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.2</v>
+        <v>1.32</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 11:10</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>4.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.83</v>
+        <v>5.06</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.14</v>
+        <v>5.85</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.79</v>
+        <v>9.76</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>1.44</v>
+        <v>2.31</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.32</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>09/09/2023 11:10</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.06</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 13:33</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.85</v>
+        <v>2.78</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>9.76</v>
+        <v>2.85</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.43</v>
+        <v>4.2</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 13:33</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.85</v>
+        <v>1.79</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>4.5</v>
+        <v>3.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.74</v>
+        <v>3.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>21/09/2023 12:43</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q44" t="inlineStr">
+      <c r="T44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R44" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>21/09/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:27</t>
-        </is>
-      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.36</v>
+        <v>4.06</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.88</v>
+        <v>6.32</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.87</v>
+        <v>4.06</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>4.06</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6.32</v>
+        <v>4.74</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.06</v>
+        <v>3.64</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.87</v>
+        <v>2.34</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.16</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.07</v>
+        <v>3.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.08</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.07</v>
+        <v>1.04</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.24</v>
+        <v>17.3</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.78</v>
+        <v>21.85</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 13:32</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.14</v>
+        <v>23.53</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.83</v>
+        <v>30.26</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.34</v>
+        <v>2.87</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.45</v>
+        <v>4.16</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.03</v>
+        <v>2.07</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.03</v>
+        <v>3.08</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.04</v>
+        <v>4.07</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>17.3</v>
+        <v>3.24</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>21.85</v>
+        <v>3.78</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 13:32</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>23.53</v>
+        <v>2.14</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>30.26</v>
+        <v>1.83</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Pontypridd</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.62</v>
+        <v>3.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.14</v>
+        <v>3.36</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.28</v>
+        <v>3.39</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.51</v>
+        <v>2.26</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.57</v>
+        <v>2.62</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.43</v>
+        <v>2.82</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.04</v>
+        <v>3.14</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.76</v>
+        <v>3.28</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.61</v>
+        <v>2.5</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>6.66</v>
+        <v>2.51</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.15</v>
+        <v>1.43</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.24</v>
+        <v>4.76</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.06</v>
+        <v>4.61</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.31</v>
+        <v>6.66</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -6737,34 +6737,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -6772,36 +6772,128 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45217.86458333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>17/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>18/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>17/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>18/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>17/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>18/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-bala/tGZzeh2p/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,62 +757,62 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.08</v>
+        <v>1.29</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.41</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.29</v>
+        <v>5.49</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.29</v>
+        <v>4.94</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>8.48</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.17</v>
+        <v>7.81</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>3.08</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>3.41</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>12/08/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>11/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>11/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>12/08/2023 15:21</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>11/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:21</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>11/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:21</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-cardiff-metropolitan-university/hE3MzFcn/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>3.06</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.06</v>
+        <v>3.75</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 14:51</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>17.82</v>
+        <v>3.46</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>16.8</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>25.53</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>26.62</v>
+        <v>2.07</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-haverfordwest/00KbclSD/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-bala/betGY4kD/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.06</v>
+        <v>1.58</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.46</v>
+        <v>3.92</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.24</v>
+        <v>4.38</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.07</v>
+        <v>4.98</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-bala/betGY4kD/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-caernarfon/K4sCZpz7/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.38</v>
+        <v>4.11</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.7</v>
+        <v>4.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.98</v>
+        <v>5.31</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-caernarfon/K4sCZpz7/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-barry-town/jVx8zRK0/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 14:51</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.92</v>
+        <v>17.82</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.11</v>
+        <v>16.8</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.66</v>
+        <v>25.53</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.31</v>
+        <v>26.62</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-barry-town/jVx8zRK0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-haverfordwest/00KbclSD/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>4.06</v>
+        <v>4.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6.32</v>
+        <v>4.74</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.06</v>
+        <v>3.64</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Bala</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>4.5</v>
+        <v>4.06</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4.74</v>
+        <v>6.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.64</v>
+        <v>4.06</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" t="n">
-        <v>16.08</v>
+        <v>2.71</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>14.33</v>
+        <v>3.15</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>10.4</v>
+        <v>3.15</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>9.050000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:47</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.08</v>
+        <v>2.41</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.48</v>
+        <v>4.51</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.55</v>
+        <v>5.32</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.09</v>
+        <v>6.32</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1.25</v>
+        <v>16.08</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.17</v>
+        <v>14.33</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5.62</v>
+        <v>10.4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.34</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>8.17</v>
+        <v>1.08</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>15.32</v>
+        <v>1.14</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.51</v>
+        <v>3.48</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5.32</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>6.32</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>9.220000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.71</v>
+        <v>1.25</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.15</v>
+        <v>1.17</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.15</v>
+        <v>5.62</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.26</v>
+        <v>7.34</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:47</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.41</v>
+        <v>8.17</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.28</v>
+        <v>15.32</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.34</v>
+        <v>3.08</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.28</v>
+        <v>4.07</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 13:32</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.14</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.03</v>
+        <v>1.83</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>1.03</v>
+        <v>2.87</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>17.3</v>
+        <v>3.43</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>21.85</v>
+        <v>4.16</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>23.53</v>
+        <v>2.22</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>30.26</v>
+        <v>2.07</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.87</v>
+        <v>1.03</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.43</v>
+        <v>17.3</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.16</v>
+        <v>21.85</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.22</v>
+        <v>23.53</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.07</v>
+        <v>30.26</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.08</v>
+        <v>2.34</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4.07</v>
+        <v>2.28</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.78</v>
+        <v>3.45</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>30/09/2023 13:32</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.14</v>
+        <v>2.75</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.83</v>
+        <v>3.03</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.39</v>
+        <v>2.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.36</v>
+        <v>3.14</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.39</v>
+        <v>3.28</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.26</v>
+        <v>2.51</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.62</v>
+        <v>1.57</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.82</v>
+        <v>1.43</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.14</v>
+        <v>4.04</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.28</v>
+        <v>4.76</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.5</v>
+        <v>4.61</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.51</v>
+        <v>6.66</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.43</v>
+        <v>3.15</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.76</v>
+        <v>3.24</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.61</v>
+        <v>2.06</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>6.66</v>
+        <v>2.31</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -6737,34 +6737,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -6772,36 +6772,36 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,374 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-bala/tGZzeh2p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.29</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>4.03</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.49</v>
+        <v>3.27</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.94</v>
+        <v>3.34</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.48</v>
+        <v>2.21</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>11/08/2023 16:13</t>
+          <t>11/08/2023 03:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7.81</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:21</t>
+          <t>12/08/2023 15:26</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>1.29</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4.03</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.27</v>
+        <v>5.49</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.34</v>
+        <v>4.94</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.21</v>
+        <v>8.48</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>11/08/2023 03:42</t>
+          <t>11/08/2023 16:13</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>7.81</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>12/08/2023 15:26</t>
+          <t>12/08/2023 15:21</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-penybont/0v7UYhSb/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-barry-town/Mm8QZYCh/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.36</v>
+        <v>4.06</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.88</v>
+        <v>6.32</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.87</v>
+        <v>4.06</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>4.5</v>
+        <v>3.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,48 +4552,48 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.74</v>
+        <v>3.88</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="R45" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>21/09/2023 12:43</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q45" t="inlineStr">
+      <c r="T45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U45" t="inlineStr">
         <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R45" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>21/09/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:27</t>
-        </is>
-      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>4.06</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6.32</v>
+        <v>4.74</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.06</v>
+        <v>3.64</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.71</v>
+        <v>16.08</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.15</v>
+        <v>14.33</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.15</v>
+        <v>10.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.26</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:47</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.41</v>
+        <v>1.08</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.51</v>
+        <v>3.48</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>5.32</v>
+        <v>3.55</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.32</v>
+        <v>3.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>9.220000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>16.08</v>
+        <v>1.25</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>14.33</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>10.4</v>
+        <v>5.62</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>9.050000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.08</v>
+        <v>8.17</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.14</v>
+        <v>15.32</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.48</v>
+        <v>4.51</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.55</v>
+        <v>5.32</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.09</v>
+        <v>6.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.25</v>
+        <v>2.71</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.17</v>
+        <v>3.15</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>5.62</v>
+        <v>3.15</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>7.34</v>
+        <v>3.26</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 18:47</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>8.17</v>
+        <v>2.41</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>15.32</v>
+        <v>2.28</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.08</v>
+        <v>2.34</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.07</v>
+        <v>2.28</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.78</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 13:32</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.14</v>
+        <v>2.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.83</v>
+        <v>3.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
       <c r="J55" t="n">
-        <v>2.87</v>
+        <v>1.71</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>1.66</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.43</v>
+        <v>3.68</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.22</v>
+        <v>4.07</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.07</v>
+        <v>4.89</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 14:38</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.68</v>
+        <v>17.3</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>21.85</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.07</v>
+        <v>23.53</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.89</v>
+        <v>30.26</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>30/09/2023 14:38</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.03</v>
+        <v>3.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.04</v>
+        <v>4.07</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>17.3</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>21.85</v>
+        <v>3.78</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 13:32</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>23.53</v>
+        <v>2.14</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>30.26</v>
+        <v>1.83</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.34</v>
+        <v>2.87</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.45</v>
+        <v>4.16</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.03</v>
+        <v>2.07</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Pontypridd</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.62</v>
+        <v>3.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.14</v>
+        <v>3.36</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.28</v>
+        <v>3.39</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.51</v>
+        <v>2.26</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.43</v>
+        <v>3.15</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.76</v>
+        <v>3.24</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.61</v>
+        <v>2.06</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>6.66</v>
+        <v>2.31</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.36</v>
+        <v>3.14</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.31</v>
+        <v>2.51</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.39</v>
+        <v>1.57</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.12</v>
+        <v>1.43</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.39</v>
+        <v>4.76</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.96</v>
+        <v>4.61</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>6.66</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>7.91</v>
+        <v>1.86</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>22.29</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>6.09</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>10.48</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.23</v>
+        <v>3.71</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.09</v>
+        <v>3.44</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>2.26</v>
+        <v>7.91</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.58</v>
+        <v>22.29</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.32</v>
+        <v>6.09</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.24</v>
+        <v>10.48</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.79</v>
+        <v>1.23</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.78</v>
+        <v>1.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.51</v>
+        <v>3.32</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.71</v>
+        <v>2.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.44</v>
+        <v>2.78</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,558 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45226.86458333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45226.86458333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>5</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45227.76041666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-bala/hYBL6k1d/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,34 +6461,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -6496,36 +6496,36 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -6553,34 +6553,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -6588,36 +6588,36 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>5.04</v>
+        <v>4.44</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>6.43</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>7.64</v>
+        <v>6.86</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.44</v>
+        <v>5.04</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>8.199999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.86</v>
+        <v>7.64</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,98 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-bala/hYBL6k1d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45230.86458333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>30/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>31/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>30/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-colwyn-bay/Y9MMIefi/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>20.77</v>
+        <v>3.52</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>27.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>26.13</v>
+        <v>2.84</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>38.82</v>
+        <v>3.07</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.84</v>
+        <v>4.25</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.07</v>
+        <v>4.8</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.63</v>
+        <v>20.77</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.62</v>
+        <v>27.47</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.25</v>
+        <v>26.13</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.8</v>
+        <v>38.82</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.92</v>
+        <v>1.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>24.8</v>
+        <v>1.79</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>10.28</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>13.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.11</v>
+        <v>4.21</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.08</v>
+        <v>5.09</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>14.92</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.48</v>
+        <v>24.8</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.28</v>
+        <v>10.28</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>13.41</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.84</v>
+        <v>1.11</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.78</v>
+        <v>1.08</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.68</v>
+        <v>1.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.61</v>
+        <v>1.56</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.64</v>
+        <v>3.89</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.79</v>
+        <v>3.97</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:42</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>4.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>6.18</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.21</v>
+        <v>2.84</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>5.09</v>
+        <v>2.78</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.56</v>
+        <v>3.68</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.56</v>
+        <v>3.61</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.89</v>
+        <v>3.64</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.97</v>
+        <v>3.79</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:42</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.84</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.18</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.06</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>1.06</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 14:51</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.46</v>
+        <v>17.82</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>16.8</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>25.53</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.07</v>
+        <v>26.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-bala/betGY4kD/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-haverfordwest/00KbclSD/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.58</v>
+        <v>3.06</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.59</v>
+        <v>3.75</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.92</v>
+        <v>3.46</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.98</v>
+        <v>2.07</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-caernarfon/K4sCZpz7/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-bala/betGY4kD/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.11</v>
+        <v>4.38</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.66</v>
+        <v>4.7</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.31</v>
+        <v>4.98</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-barry-town/jVx8zRK0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-caernarfon/K4sCZpz7/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.06</v>
+        <v>1.6</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 14:51</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>17.82</v>
+        <v>3.92</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>16.8</v>
+        <v>4.11</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>25.53</v>
+        <v>4.66</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>26.62</v>
+        <v>5.31</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-haverfordwest/00KbclSD/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-barry-town/jVx8zRK0/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.33</v>
+        <v>17.3</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>21.85</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>23.53</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.03</v>
+        <v>30.26</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.71</v>
+        <v>2.34</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.07</v>
+        <v>2.75</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.89</v>
+        <v>3.03</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 14:38</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>17.3</v>
+        <v>3.68</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>21.85</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>23.53</v>
+        <v>4.07</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>30.26</v>
+        <v>4.89</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 14:38</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.62</v>
+        <v>1.57</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.82</v>
+        <v>1.43</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.14</v>
+        <v>4.04</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.28</v>
+        <v>4.76</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.5</v>
+        <v>4.61</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.51</v>
+        <v>6.66</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.57</v>
+        <v>2.62</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.43</v>
+        <v>2.82</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.04</v>
+        <v>3.14</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.76</v>
+        <v>3.28</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.61</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.66</v>
+        <v>2.51</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.44</v>
+        <v>5.04</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>8.199999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.86</v>
+        <v>7.64</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.04</v>
+        <v>4.44</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>6.43</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.64</v>
+        <v>6.86</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,558 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-colwyn-bay/Y9MMIefi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:23</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:23</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:24</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:24</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:10</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.32</v>
+        <v>3.97</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.21</v>
+        <v>4.84</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.09</v>
+        <v>6.18</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.89</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.97</v>
+        <v>3.32</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.84</v>
+        <v>4.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.18</v>
+        <v>5.09</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
       <c r="J44" t="n">
-        <v>4.06</v>
+        <v>4.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6.32</v>
+        <v>4.74</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.06</v>
+        <v>3.64</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.36</v>
+        <v>4.06</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.88</v>
+        <v>6.32</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.87</v>
+        <v>4.06</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>4.5</v>
+        <v>3.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4.74</v>
+        <v>3.88</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>21/09/2023 12:43</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="T46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>21/09/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:27</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
         </is>
       </c>
     </row>
@@ -6461,34 +6461,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="n">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -6496,36 +6496,36 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -6553,34 +6553,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -6588,36 +6588,36 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.57</v>
+        <v>2.62</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.43</v>
+        <v>2.82</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.04</v>
+        <v>3.14</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.76</v>
+        <v>3.28</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.61</v>
+        <v>2.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>6.66</v>
+        <v>2.51</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.62</v>
+        <v>1.57</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.82</v>
+        <v>1.43</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.14</v>
+        <v>4.04</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.28</v>
+        <v>4.76</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>4.61</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.51</v>
+        <v>6.66</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>4.39</v>
+        <v>1.69</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5.35</v>
+        <v>1.83</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.1</v>
+        <v>3.64</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.6</v>
+        <v>4.26</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.62</v>
+        <v>5.35</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.34</v>
+        <v>3.87</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.77</v>
+        <v>4.1</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.69</v>
+        <v>7.29</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.83</v>
+        <v>8.68</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.75</v>
+        <v>5.68</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.64</v>
+        <v>5.96</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>1.27</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.26</v>
+        <v>1.29</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.68</v>
+        <v>4.07</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.72</v>
+        <v>3.91</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.74</v>
+        <v>4.5</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
         <v>3.68</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>04/11/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>4.5</v>
+        <v>6.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,163 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45244.875</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>Newtown</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:13</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:13</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T87" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:10</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>19/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>19/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>19/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-newtown/WfuQHF9c/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>5.04</v>
+        <v>4.44</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>6.43</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>7.64</v>
+        <v>6.86</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.44</v>
+        <v>5.04</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>8.199999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.86</v>
+        <v>7.64</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.71</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.81</v>
+        <v>2.28</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.66</v>
+        <v>2.36</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>3.35</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.78</v>
+        <v>2.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.65</v>
+        <v>1.81</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.2</v>
+        <v>1.66</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.02</v>
+        <v>3.62</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>3.91</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.61</v>
+        <v>3.78</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.43</v>
+        <v>5</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.07</v>
+        <v>4.72</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.26</v>
+        <v>6.74</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>4.39</v>
+        <v>1.74</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.35</v>
+        <v>1.69</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.87</v>
+        <v>3.68</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.62</v>
+        <v>3.91</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>7.29</v>
+        <v>2.62</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>8.68</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>5.68</v>
+        <v>3.34</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.96</v>
+        <v>3.77</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.27</v>
+        <v>2.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.29</v>
+        <v>2.44</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.74</v>
+        <v>4.39</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.69</v>
+        <v>5.35</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.91</v>
+        <v>1.62</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.72</v>
+        <v>4.07</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.74</v>
+        <v>4.26</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>7.29</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.62</v>
+        <v>8.68</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.34</v>
+        <v>5.68</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.77</v>
+        <v>5.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.44</v>
+        <v>1.29</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,98 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-newtown/WfuQHF9c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45247.875</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>17/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>17/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>17/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-bala/QwhdJSp2/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.89</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.97</v>
+        <v>3.32</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.84</v>
+        <v>4.21</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.18</v>
+        <v>5.09</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.32</v>
+        <v>3.97</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.21</v>
+        <v>4.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.09</v>
+        <v>6.18</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>4.5</v>
+        <v>3.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.74</v>
+        <v>3.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>21/09/2023 12:43</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q44" t="inlineStr">
+      <c r="T44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R44" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>21/09/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:27</t>
-        </is>
-      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.36</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.88</v>
+        <v>4.74</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.5</v>
+        <v>3.82</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.87</v>
+        <v>3.64</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>1.03</v>
+        <v>2.87</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>17.3</v>
+        <v>3.43</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>21.85</v>
+        <v>4.16</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>23.53</v>
+        <v>2.22</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>30.26</v>
+        <v>2.07</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.34</v>
+        <v>3.08</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.28</v>
+        <v>4.07</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 13:32</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.75</v>
+        <v>2.14</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.03</v>
+        <v>1.83</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.68</v>
+        <v>17.3</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>21.85</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.07</v>
+        <v>23.53</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.89</v>
+        <v>30.26</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>30/09/2023 14:38</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.08</v>
+        <v>1.71</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>4.07</v>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:11</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>29/09/2023 02:42</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>30/09/2023 13:32</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>1.83</v>
+        <v>4.89</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 14:38</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.87</v>
+        <v>2.34</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.16</v>
+        <v>3.45</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.07</v>
+        <v>3.03</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -6461,34 +6461,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -6496,36 +6496,36 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -6553,34 +6553,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -6588,36 +6588,36 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.44</v>
+        <v>5.04</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>8.199999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.86</v>
+        <v>7.64</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.04</v>
+        <v>4.44</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>6.43</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.64</v>
+        <v>6.86</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.6</v>
+        <v>7.29</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.57</v>
+        <v>8.68</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.75</v>
+        <v>5.68</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.72</v>
+        <v>1.27</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>6.74</v>
+        <v>1.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,32 +8064,32 @@
         </is>
       </c>
       <c r="P83" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:24</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>4.07</v>
       </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>04/11/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>3.91</v>
-      </c>
       <c r="S83" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.5</v>
+        <v>4.26</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.62</v>
+        <v>5.35</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.34</v>
+        <v>3.87</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.77</v>
+        <v>4.1</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>4.39</v>
+        <v>1.74</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.35</v>
+        <v>1.69</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.87</v>
+        <v>3.68</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.62</v>
+        <v>3.91</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.07</v>
+        <v>4.72</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.26</v>
+        <v>6.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>7.29</v>
+        <v>2.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>8.68</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>5.68</v>
+        <v>3.34</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>5.96</v>
+        <v>3.77</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.27</v>
+        <v>2.38</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.29</v>
+        <v>2.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,374 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-bala/QwhdJSp2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45249.64583333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45249.64583333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45249.64583333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45249.64583333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.52</v>
+        <v>20.77</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.66</v>
+        <v>27.47</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.84</v>
+        <v>26.13</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.07</v>
+        <v>38.82</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.25</v>
+        <v>2.84</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.8</v>
+        <v>3.07</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>20.77</v>
+        <v>3.63</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>27.47</v>
+        <v>3.62</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>26.13</v>
+        <v>4.25</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>38.82</v>
+        <v>4.8</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>14.92</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>24.8</v>
+        <v>2.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>10.28</v>
+        <v>3.28</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>13.41</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.11</v>
+        <v>2.84</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.08</v>
+        <v>2.78</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.56</v>
+        <v>3.68</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.56</v>
+        <v>3.61</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.89</v>
+        <v>3.64</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.97</v>
+        <v>3.79</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:42</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.84</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.18</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>14.92</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.48</v>
+        <v>24.8</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.28</v>
+        <v>10.28</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>13.41</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.84</v>
+        <v>1.11</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.78</v>
+        <v>1.08</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.68</v>
+        <v>1.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.61</v>
+        <v>1.56</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.64</v>
+        <v>3.89</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.79</v>
+        <v>3.97</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:42</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>4.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>6.18</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.58</v>
+        <v>3.91</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.51</v>
+        <v>3.57</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/09/2023 20:36</t>
+          <t>01/09/2023 20:41</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.19</v>
+        <v>3.72</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>01/09/2023 20:36</t>
+          <t>01/09/2023 20:41</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.56</v>
+        <v>1.76</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.89</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>01/09/2023 20:36</t>
+          <t>01/09/2023 20:41</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-cardiff-metropolitan-university/hW2lsxxG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-connahs-q/A7DqrIM9/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.91</v>
+        <v>2.58</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.57</v>
+        <v>2.51</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 20:41</t>
+          <t>01/09/2023 20:36</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 20:41</t>
+          <t>01/09/2023 20:36</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.76</v>
+        <v>2.56</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>2.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 20:41</t>
+          <t>01/09/2023 20:36</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-connahs-q/A7DqrIM9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-cardiff-metropolitan-university/hW2lsxxG/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.07</v>
+        <v>2.64</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.12</v>
+        <v>2.79</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.61</v>
+        <v>2.53</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Haverfordwest</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.52</v>
+        <v>3.16</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.65</v>
+        <v>2.07</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.16</v>
+        <v>3.27</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.16</v>
+        <v>3.35</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.87</v>
+        <v>3.12</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>3.61</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.36</v>
+        <v>4.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.88</v>
+        <v>4.74</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.5</v>
+        <v>3.82</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.87</v>
+        <v>3.64</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>4.06</v>
+        <v>3.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6.32</v>
+        <v>3.88</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.06</v>
+        <v>3.87</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Bala</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>4.5</v>
+        <v>4.06</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4.74</v>
+        <v>6.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.64</v>
+        <v>4.06</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" t="n">
-        <v>16.08</v>
+        <v>2.71</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>14.33</v>
+        <v>3.15</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>10.4</v>
+        <v>3.15</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>9.050000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:47</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.08</v>
+        <v>2.41</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.48</v>
+        <v>4.51</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.55</v>
+        <v>5.32</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.09</v>
+        <v>6.32</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1.25</v>
+        <v>16.08</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.17</v>
+        <v>14.33</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5.62</v>
+        <v>10.4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.34</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>8.17</v>
+        <v>1.08</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>15.32</v>
+        <v>1.14</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.51</v>
+        <v>3.48</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5.32</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>6.32</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>9.220000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.71</v>
+        <v>1.25</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.15</v>
+        <v>1.17</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.15</v>
+        <v>5.62</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.26</v>
+        <v>7.34</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:47</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.41</v>
+        <v>8.17</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.28</v>
+        <v>15.32</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>17.3</v>
+        <v>3.68</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>21.85</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>23.53</v>
+        <v>4.07</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>30.26</v>
+        <v>4.89</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 14:38</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.71</v>
+        <v>2.34</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.07</v>
+        <v>2.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.89</v>
+        <v>3.03</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:38</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-aberystwyth/KvbL0NY5/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.33</v>
+        <v>17.3</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.45</v>
+        <v>21.85</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.75</v>
+        <v>23.53</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.03</v>
+        <v>30.26</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.42</v>
+        <v>1.88</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.34</v>
+        <v>3.54</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>6.29</v>
+        <v>3.46</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.98</v>
+        <v>3.26</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>4</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.88</v>
+        <v>6.81</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.98</v>
+        <v>11.14</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.54</v>
+        <v>4.78</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.05</v>
+        <v>6.56</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.46</v>
+        <v>1.34</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.26</v>
+        <v>1.22</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
       <c r="J64" t="n">
-        <v>6.81</v>
+        <v>1.42</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>11.14</v>
+        <v>1.63</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.78</v>
+        <v>4.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>6.56</v>
+        <v>4.12</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.34</v>
+        <v>6.29</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.22</v>
+        <v>4.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.36</v>
+        <v>3.14</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.31</v>
+        <v>2.51</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.39</v>
+        <v>1.57</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.12</v>
+        <v>1.43</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.39</v>
+        <v>4.76</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.96</v>
+        <v>4.61</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.26</v>
+        <v>6.66</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.14</v>
+        <v>3.36</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.51</v>
+        <v>2.31</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.57</v>
+        <v>3.39</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.43</v>
+        <v>3.12</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.76</v>
+        <v>3.39</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.61</v>
+        <v>1.96</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.66</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.51</v>
+        <v>3.32</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.71</v>
+        <v>2.79</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.44</v>
+        <v>2.78</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>7.91</v>
+        <v>5.08</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>22.29</v>
+        <v>7.55</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>6.09</v>
+        <v>3.93</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>10.48</v>
+        <v>4.54</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
-        <v>2.26</v>
+        <v>7.91</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.58</v>
+        <v>22.29</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.32</v>
+        <v>6.09</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.24</v>
+        <v>10.48</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.79</v>
+        <v>1.23</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.78</v>
+        <v>1.09</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
       <c r="J74" t="n">
-        <v>5.08</v>
+        <v>1.86</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>7.55</v>
+        <v>2.05</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.93</v>
+        <v>3.51</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.54</v>
+        <v>3.59</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.56</v>
+        <v>3.71</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.42</v>
+        <v>3.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>3.71</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.75</v>
+        <v>3.78</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>1.81</v>
+        <v>2.65</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.66</v>
+        <v>3.2</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.62</v>
+        <v>3.02</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.91</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.78</v>
+        <v>2.61</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5</v>
+        <v>2.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>7.29</v>
+        <v>2.62</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>8.68</v>
+        <v>2.62</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>5.68</v>
+        <v>3.34</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.96</v>
+        <v>3.77</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.27</v>
+        <v>2.38</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.29</v>
+        <v>2.44</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.69</v>
+        <v>7.29</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.83</v>
+        <v>8.68</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.75</v>
+        <v>5.68</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.64</v>
+        <v>5.96</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.07</v>
+        <v>1.27</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.26</v>
+        <v>1.29</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>4.39</v>
+        <v>1.69</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5.35</v>
+        <v>1.83</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.1</v>
+        <v>3.64</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.62</v>
+        <v>4.07</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.6</v>
+        <v>4.26</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,48 +8232,48 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
         <v>3.68</v>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S85" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="P85" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>04/11/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
       <c r="T85" t="n">
-        <v>4.5</v>
+        <v>6.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.68</v>
+        <v>4.07</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.72</v>
+        <v>3.91</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.74</v>
+        <v>4.5</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.62</v>
+        <v>5.35</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.34</v>
+        <v>3.87</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.77</v>
+        <v>4.1</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4.07</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.5</v>
+        <v>3.63</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.18</v>
+        <v>3.67</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>5.6</v>
+        <v>4.07</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>5.44</v>
+        <v>4.5</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>6.95</v>
+        <v>4.18</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>10.08</v>
+        <v>3.8</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,163 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>Colwyn Bay</t>
         </is>
       </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>17/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:28</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>17/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>17/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:28</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-penybont/0zXtEX8M/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>16.08</v>
+        <v>1.25</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>14.33</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>10.4</v>
+        <v>5.62</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>9.050000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.08</v>
+        <v>8.17</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.14</v>
+        <v>15.32</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.25</v>
+        <v>16.08</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.17</v>
+        <v>14.33</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>5.62</v>
+        <v>10.4</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>7.34</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>8.17</v>
+        <v>1.08</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>15.32</v>
+        <v>1.14</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.54</v>
+        <v>4.34</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.46</v>
+        <v>6.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.26</v>
+        <v>4.98</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>6.81</v>
+        <v>1.88</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>11.14</v>
+        <v>1.98</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.78</v>
+        <v>3.54</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>6.56</v>
+        <v>4.05</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.34</v>
+        <v>3.46</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.22</v>
+        <v>3.26</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1.42</v>
+        <v>6.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.63</v>
+        <v>11.14</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.34</v>
+        <v>4.78</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.12</v>
+        <v>6.56</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.29</v>
+        <v>1.34</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.98</v>
+        <v>1.22</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>7.91</v>
+        <v>1.86</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>22.29</v>
+        <v>2.05</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>6.09</v>
+        <v>3.51</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>10.48</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.23</v>
+        <v>3.71</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.09</v>
+        <v>3.44</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>1.86</v>
+        <v>7.91</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.05</v>
+        <v>22.29</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.51</v>
+        <v>6.09</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.59</v>
+        <v>10.48</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.71</v>
+        <v>1.23</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.44</v>
+        <v>1.09</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>2</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
       <c r="J82" t="n">
-        <v>2.62</v>
+        <v>7.29</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.62</v>
+        <v>8.68</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.34</v>
+        <v>5.68</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.77</v>
+        <v>5.96</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.44</v>
+        <v>1.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
       <c r="J83" t="n">
-        <v>7.29</v>
+        <v>1.69</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>8.68</v>
+        <v>1.83</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>5.68</v>
+        <v>3.75</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>5.96</v>
+        <v>3.64</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.27</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.29</v>
+        <v>4.26</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.69</v>
+        <v>4.39</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.83</v>
+        <v>5.35</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.64</v>
+        <v>4.1</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>1.62</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.26</v>
+        <v>1.6</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.68</v>
+        <v>4.07</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.72</v>
+        <v>3.91</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.74</v>
+        <v>4.5</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
         <v>3.68</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>04/11/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>4.5</v>
+        <v>6.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.35</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.87</v>
+        <v>3.34</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.1</v>
+        <v>3.77</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.6</v>
+        <v>2.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:20</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.51</v>
+        <v>4.07</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.22</v>
+        <v>4.18</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.83</v>
+        <v>1.28</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.92</v>
+        <v>1.28</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.63</v>
+        <v>5.44</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.67</v>
+        <v>6.95</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.85</v>
+        <v>10.08</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,48 +8876,48 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>19/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>19/11/2023 15:29</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O92" t="inlineStr">
+      <c r="R92" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>17/11/2023 01:12</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q92" t="inlineStr">
+      <c r="T92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U92" t="inlineStr">
         <is>
           <t>19/11/2023 15:29</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>17/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:29</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>5.44</v>
+        <v>3.63</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>6.95</v>
+        <v>3.67</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>10.08</v>
+        <v>3.85</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
         </is>
       </c>
     </row>
@@ -9102,6 +9102,374 @@
       <c r="V94" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-penybont/0zXtEX8M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-cardiff-metropolitan-university/tU4Lfk78/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-caernarfon/0YRYWoF1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-penybont/S6ERY7pk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-pontypridd-united/6cDVXRae/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>1.42</v>
+        <v>6.81</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.63</v>
+        <v>11.14</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.34</v>
+        <v>4.78</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.12</v>
+        <v>6.56</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>6.29</v>
+        <v>1.34</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.98</v>
+        <v>1.22</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
       <c r="J64" t="n">
-        <v>6.81</v>
+        <v>1.42</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>11.14</v>
+        <v>1.63</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.78</v>
+        <v>4.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>6.56</v>
+        <v>4.12</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.34</v>
+        <v>6.29</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.22</v>
+        <v>4.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.32</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.79</v>
+        <v>3.71</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.78</v>
+        <v>3.44</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>5.08</v>
+        <v>7.91</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>7.55</v>
+        <v>22.29</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.93</v>
+        <v>6.09</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.54</v>
+        <v>10.48</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.51</v>
+        <v>3.32</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.71</v>
+        <v>2.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.44</v>
+        <v>2.78</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>7.91</v>
+        <v>5.08</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>22.29</v>
+        <v>7.55</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>6.09</v>
+        <v>3.93</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>10.48</v>
+        <v>4.54</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.78</v>
+        <v>5.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>5.04</v>
+        <v>4.44</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>6.43</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>7.64</v>
+        <v>6.86</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/10/2023 20:41</t>
+          <t>27/10/2023 20:36</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.37</v>
+        <v>4.78</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.44</v>
+        <v>5.04</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>8.199999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.86</v>
+        <v>7.64</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/10/2023 20:36</t>
+          <t>27/10/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-aberystwyth/EsDH7Voj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-caernarfon/KKDD8BWq/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>7.29</v>
+        <v>1.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>8.68</v>
+        <v>1.57</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>5.68</v>
+        <v>3.75</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.27</v>
+        <v>4.72</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.29</v>
+        <v>6.74</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
         <v>1.69</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O83" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:22</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S83" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="P83" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:24</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
       <c r="T83" t="n">
-        <v>4.26</v>
+        <v>4.5</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5.35</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.87</v>
+        <v>3.34</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.1</v>
+        <v>3.77</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.6</v>
+        <v>2.44</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.74</v>
+        <v>4.39</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.69</v>
+        <v>5.35</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.91</v>
+        <v>1.62</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.72</v>
+        <v>4.07</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.74</v>
+        <v>4.26</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>7.29</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.62</v>
+        <v>8.68</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.34</v>
+        <v>5.68</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.77</v>
+        <v>5.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.44</v>
+        <v>1.29</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.44</v>
+        <v>1.89</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.61</v>
+        <v>1.75</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.05</v>
+        <v>4.13</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.62</v>
+        <v>3.49</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.89</v>
+        <v>4.12</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-cardiff-metropolitan-university/tU4Lfk78/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-caernarfon/0YRYWoF1/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.89</v>
+        <v>3.43</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.75</v>
+        <v>3.31</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.13</v>
+        <v>3.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.49</v>
+        <v>1.88</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.12</v>
+        <v>2.11</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-caernarfon/0YRYWoF1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-penybont/S6ERY7pk/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>3.43</v>
+        <v>2.44</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.31</v>
+        <v>2.61</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.58</v>
+        <v>3.23</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.88</v>
+        <v>2.62</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.11</v>
+        <v>2.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-penybont/S6ERY7pk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-cardiff-metropolitan-university/tU4Lfk78/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,98 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-pontypridd-united/6cDVXRae/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45258.875</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>28/11/2023 18:30</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/11/2023 18:30</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>28/11/2023 18:30</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/11/2023 18:30</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>28/11/2023 10:40</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/11/2023 10:40</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-tns/prPMZmVr/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.51</v>
+        <v>5.62</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>5.32</v>
+        <v>7.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.32</v>
+        <v>8.17</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>9.220000000000001</v>
+        <v>15.32</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5.62</v>
+        <v>4.51</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.34</v>
+        <v>5.32</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>8.17</v>
+        <v>6.32</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>15.32</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.08</v>
+        <v>16.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.05</v>
+        <v>14.33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.48</v>
+        <v>10.4</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.55</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.09</v>
+        <v>1.08</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.48</v>
+        <v>1.14</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>16.08</v>
+        <v>2.08</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>14.33</v>
+        <v>2.05</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>10.4</v>
+        <v>3.48</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>9.050000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.08</v>
+        <v>3.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.14</v>
+        <v>3.48</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.51</v>
+        <v>3.32</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.71</v>
+        <v>2.79</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.44</v>
+        <v>2.78</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>7.91</v>
+        <v>5.08</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>22.29</v>
+        <v>7.55</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>6.09</v>
+        <v>3.93</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>10.48</v>
+        <v>4.54</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.32</v>
+        <v>3.51</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.79</v>
+        <v>3.71</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.78</v>
+        <v>3.44</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>5.08</v>
+        <v>7.91</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>7.55</v>
+        <v>22.29</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.93</v>
+        <v>6.09</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.54</v>
+        <v>10.48</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,98 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-tns/prPMZmVr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45259.86458333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>29/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>29/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>29/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-connahs-q/vPQxW5U7/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.21</v>
+        <v>2.84</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.09</v>
+        <v>2.78</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>3.68</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.48</v>
+        <v>3.61</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.28</v>
+        <v>3.64</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:42</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.84</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.68</v>
+        <v>14.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.61</v>
+        <v>24.8</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.64</v>
+        <v>10.28</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.79</v>
+        <v>13.41</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:42</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.11</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>1.08</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>14.92</v>
+        <v>1.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>24.8</v>
+        <v>1.56</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>10.28</v>
+        <v>3.89</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>13.41</v>
+        <v>3.97</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.11</v>
+        <v>4.84</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.08</v>
+        <v>6.18</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.89</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.97</v>
+        <v>3.32</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.84</v>
+        <v>4.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.18</v>
+        <v>5.09</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.91</v>
+        <v>2.58</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.57</v>
+        <v>2.51</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/09/2023 20:41</t>
+          <t>01/09/2023 20:36</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>01/09/2023 20:41</t>
+          <t>01/09/2023 20:36</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.76</v>
+        <v>2.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>2.89</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>01/09/2023 20:41</t>
+          <t>01/09/2023 20:36</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-connahs-q/A7DqrIM9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-cardiff-metropolitan-university/hW2lsxxG/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>2.58</v>
+        <v>3.91</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.51</v>
+        <v>3.57</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 20:36</t>
+          <t>01/09/2023 20:41</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.19</v>
+        <v>3.72</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 20:36</t>
+          <t>01/09/2023 20:41</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.56</v>
+        <v>1.76</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.89</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 20:36</t>
+          <t>01/09/2023 20:41</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-cardiff-metropolitan-university/hW2lsxxG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-connahs-q/A7DqrIM9/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.64</v>
+        <v>2.07</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.79</v>
+        <v>3.12</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.53</v>
+        <v>3.61</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.16</v>
+        <v>3.52</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.07</v>
+        <v>2.65</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.27</v>
+        <v>3.16</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.61</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.71</v>
+        <v>16.08</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.15</v>
+        <v>14.33</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.15</v>
+        <v>10.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.26</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:47</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.41</v>
+        <v>1.08</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.17</v>
+        <v>2.05</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:51</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5.62</v>
+        <v>3.48</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7.34</v>
+        <v>3.55</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.17</v>
+        <v>3.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>15.32</v>
+        <v>3.48</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 20:22</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:51</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.51</v>
+        <v>5.62</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>5.32</v>
+        <v>7.34</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>6.32</v>
+        <v>8.17</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>9.220000000000001</v>
+        <v>15.32</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 20:22</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-colwyn-bay/pSWkorZI/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>16.08</v>
+        <v>1.39</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>14.33</v>
+        <v>1.32</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>10.4</v>
+        <v>4.51</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>9.050000000000001</v>
+        <v>5.32</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.08</v>
+        <v>6.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.14</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.05</v>
+        <v>3.15</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 18:47</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>2.41</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.48</v>
+        <v>2.28</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>6.81</v>
+        <v>1.88</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>11.14</v>
+        <v>1.98</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.78</v>
+        <v>3.54</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>6.56</v>
+        <v>4.05</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.34</v>
+        <v>3.46</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.22</v>
+        <v>3.26</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>4</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.88</v>
+        <v>6.81</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.98</v>
+        <v>11.14</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.54</v>
+        <v>4.78</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.05</v>
+        <v>6.56</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.46</v>
+        <v>1.34</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.26</v>
+        <v>1.22</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>2.26</v>
+        <v>5.08</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.58</v>
+        <v>7.55</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.24</v>
+        <v>4.54</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.79</v>
+        <v>1.56</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.78</v>
+        <v>1.42</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>3</v>
-      </c>
       <c r="J72" t="n">
-        <v>5.08</v>
+        <v>1.86</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>7.55</v>
+        <v>2.05</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.93</v>
+        <v>3.51</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.54</v>
+        <v>3.59</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.56</v>
+        <v>3.71</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.42</v>
+        <v>3.44</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
-        <v>1.86</v>
+        <v>7.91</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.05</v>
+        <v>22.29</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.51</v>
+        <v>6.09</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>10.48</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.71</v>
+        <v>1.23</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.44</v>
+        <v>1.09</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>7.91</v>
+        <v>2.26</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>22.29</v>
+        <v>2.58</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>6.09</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>10.48</v>
+        <v>3.24</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.23</v>
+        <v>2.79</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.09</v>
+        <v>2.78</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.71</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.81</v>
+        <v>2.28</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.66</v>
+        <v>2.36</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>3.35</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.78</v>
+        <v>2.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.65</v>
+        <v>1.81</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.2</v>
+        <v>1.66</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.02</v>
+        <v>3.62</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>3.91</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.61</v>
+        <v>3.78</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.43</v>
+        <v>5</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.07</v>
+        <v>3.55</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.5</v>
+        <v>3.63</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.18</v>
+        <v>3.67</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:20</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5.6</v>
+        <v>3.51</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>5.44</v>
+        <v>3.15</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>6.95</v>
+        <v>3.22</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>10.08</v>
+        <v>2.95</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.98</v>
+        <v>1.28</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:20</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.51</v>
+        <v>5.6</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.15</v>
+        <v>5.44</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.22</v>
+        <v>6.95</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.95</v>
+        <v>10.08</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.55</v>
+        <v>4.07</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.63</v>
+        <v>4.5</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.67</v>
+        <v>4.18</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,466 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-connahs-q/vPQxW5U7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>7</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-barry-town/lf8ThTyL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-colwyn-bay/8vk0m7ar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-caernarfon/thm8ooUf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45262.64930555555</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>4</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-aberystwyth/fX8Pg9ME/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45262.76041666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>30/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:07</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>30/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:07</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>30/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:07</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-bala/nVm4nREl/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>20.77</v>
+        <v>3.63</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>27.47</v>
+        <v>3.62</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>26.13</v>
+        <v>4.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>38.82</v>
+        <v>4.8</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.52</v>
+        <v>20.77</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.66</v>
+        <v>27.47</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.84</v>
+        <v>26.13</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.07</v>
+        <v>38.82</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.25</v>
+        <v>2.84</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.8</v>
+        <v>3.07</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.84</v>
+        <v>4.21</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>28/08/2023 15:43</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.78</v>
+        <v>5.09</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:36</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.68</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.61</v>
+        <v>2.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.64</v>
+        <v>3.28</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:42</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>2.84</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>28/08/2023 15:43</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>2.78</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/08/2023 20:41</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-haverfordwest/6Ftmw8Jp/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>14.92</v>
+        <v>3.68</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>24.8</v>
+        <v>3.61</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>10.28</v>
+        <v>3.64</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>13.41</v>
+        <v>3.79</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:42</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.11</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>29/08/2023 11:12</t>
+          <t>28/08/2023 09:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.08</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/08/2023 20:39</t>
+          <t>29/08/2023 20:41</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-bala/p6uixSYj/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.56</v>
+        <v>14.92</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.56</v>
+        <v>24.8</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.89</v>
+        <v>10.28</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.97</v>
+        <v>13.41</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.84</v>
+        <v>1.11</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/08/2023 09:12</t>
+          <t>29/08/2023 11:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>6.18</v>
+        <v>1.08</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/08/2023 20:37</t>
+          <t>29/08/2023 20:39</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-tns/OjBXpKxi/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.32</v>
+        <v>3.97</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.21</v>
+        <v>4.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.09</v>
+        <v>6.18</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/08/2023 20:36</t>
+          <t>29/08/2023 20:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-cardiff-metropolitan-university/d49uqb73/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-newtown/2sAypvhc/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.07</v>
+        <v>2.65</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.27</v>
+        <v>3.16</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.61</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.64</v>
+        <v>2.07</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.79</v>
+        <v>3.12</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.53</v>
+        <v>3.61</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.16</v>
+        <v>3.52</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>4.5</v>
+        <v>3.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.74</v>
+        <v>3.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>21/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>21/09/2023 12:43</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q44" t="inlineStr">
+      <c r="T44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>23/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R44" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>21/09/2023 12:43</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:27</t>
-        </is>
-      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.36</v>
+        <v>4.06</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.88</v>
+        <v>6.32</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.87</v>
+        <v>4.06</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Connahs Q.</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>4.06</v>
+        <v>4.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6.32</v>
+        <v>4.74</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.06</v>
+        <v>3.64</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.87</v>
+        <v>2.34</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.16</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.07</v>
+        <v>3.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.08</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.07</v>
+        <v>1.04</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.24</v>
+        <v>17.3</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.78</v>
+        <v>21.85</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 13:32</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.14</v>
+        <v>23.53</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.83</v>
+        <v>30.26</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.34</v>
+        <v>3.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.28</v>
+        <v>4.07</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 13:32</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.75</v>
+        <v>2.14</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.03</v>
+        <v>1.83</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.03</v>
+        <v>2.87</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>17.3</v>
+        <v>3.43</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>21.85</v>
+        <v>4.16</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>23.53</v>
+        <v>2.22</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>30.26</v>
+        <v>2.07</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.54</v>
+        <v>4.34</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.46</v>
+        <v>6.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.26</v>
+        <v>4.98</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>6.81</v>
+        <v>1.88</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>11.14</v>
+        <v>1.98</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.78</v>
+        <v>3.54</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>6.56</v>
+        <v>4.05</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.34</v>
+        <v>3.46</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.22</v>
+        <v>3.26</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1.42</v>
+        <v>6.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.63</v>
+        <v>11.14</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.34</v>
+        <v>4.78</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.12</v>
+        <v>6.56</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.29</v>
+        <v>1.34</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.98</v>
+        <v>1.22</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Pontypridd</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.62</v>
+        <v>3.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.14</v>
+        <v>3.36</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.28</v>
+        <v>3.39</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.51</v>
+        <v>2.26</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.57</v>
+        <v>2.62</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.43</v>
+        <v>2.82</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.04</v>
+        <v>3.14</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.76</v>
+        <v>3.28</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.61</v>
+        <v>2.5</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>6.66</v>
+        <v>2.51</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.15</v>
+        <v>1.43</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.24</v>
+        <v>4.76</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.06</v>
+        <v>4.61</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.31</v>
+        <v>6.66</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -6737,34 +6737,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -6772,36 +6772,36 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.51</v>
+        <v>3.32</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.71</v>
+        <v>2.79</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.44</v>
+        <v>2.78</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>7.91</v>
+        <v>1.86</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>22.29</v>
+        <v>2.05</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>6.09</v>
+        <v>3.51</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>10.48</v>
+        <v>3.59</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.23</v>
+        <v>3.71</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.09</v>
+        <v>3.44</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>2.26</v>
+        <v>7.91</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.58</v>
+        <v>22.29</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>6.09</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.24</v>
+        <v>10.48</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.79</v>
+        <v>1.23</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.78</v>
+        <v>1.09</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>3.71</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.75</v>
+        <v>3.78</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>1.81</v>
+        <v>2.65</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.66</v>
+        <v>3.2</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.62</v>
+        <v>3.02</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.91</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.78</v>
+        <v>2.61</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5</v>
+        <v>2.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-haverfordwest/WGG0Uhg3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.68</v>
+        <v>4.07</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.72</v>
+        <v>3.91</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>6.74</v>
+        <v>4.5</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.74</v>
+        <v>7.29</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.69</v>
+        <v>8.68</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.68</v>
+        <v>5.68</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.07</v>
+        <v>5.96</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.91</v>
+        <v>1.27</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.5</v>
+        <v>1.29</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.62</v>
+        <v>1.69</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.34</v>
+        <v>3.75</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.38</v>
+        <v>4.07</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.44</v>
+        <v>4.26</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.39</v>
+        <v>1.6</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.35</v>
+        <v>1.57</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.1</v>
+        <v>3.68</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.62</v>
+        <v>4.72</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.6</v>
+        <v>6.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>1.69</v>
+        <v>2.62</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.75</v>
+        <v>3.34</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.64</v>
+        <v>3.77</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.07</v>
+        <v>2.38</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.26</v>
+        <v>2.44</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>7.29</v>
+        <v>4.39</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>8.68</v>
+        <v>5.35</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>5.68</v>
+        <v>3.87</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>5.96</v>
+        <v>4.1</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.55</v>
+        <v>4.07</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.63</v>
+        <v>4.5</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.67</v>
+        <v>4.18</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.98</v>
+        <v>1.28</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:20</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.51</v>
+        <v>5.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.15</v>
+        <v>5.44</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.22</v>
+        <v>6.95</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.95</v>
+        <v>10.08</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:20</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>5.6</v>
+        <v>3.51</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>5.44</v>
+        <v>3.15</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>6.95</v>
+        <v>3.22</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>10.08</v>
+        <v>2.95</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.07</v>
+        <v>3.55</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.5</v>
+        <v>3.63</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.18</v>
+        <v>3.67</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:29</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.59</v>
+        <v>4.03</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.49</v>
+        <v>5.33</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.12</v>
+        <v>7.34</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-caernarfon/0YRYWoF1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-pontypridd-united/6cDVXRae/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>3.43</v>
+        <v>2.44</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.31</v>
+        <v>2.61</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.58</v>
+        <v>3.23</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.88</v>
+        <v>2.62</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.11</v>
+        <v>2.89</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-penybont/S6ERY7pk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-cardiff-metropolitan-university/tU4Lfk78/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.44</v>
+        <v>3.43</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.61</v>
+        <v>3.31</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.23</v>
+        <v>3.58</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.05</v>
+        <v>3.56</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.62</v>
+        <v>1.88</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.89</v>
+        <v>2.11</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-cardiff-metropolitan-university/tU4Lfk78/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-penybont/S6ERY7pk/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.03</v>
+        <v>3.59</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.09</v>
+        <v>4.13</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.33</v>
+        <v>3.49</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.34</v>
+        <v>4.12</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-pontypridd-united/6cDVXRae/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-caernarfon/0YRYWoF1/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.27</v>
+        <v>3.75</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.19</v>
+        <v>2.81</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>5.42</v>
+        <v>3.63</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>7.34</v>
+        <v>3.97</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>7.82</v>
+        <v>1.82</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>12.46</v>
+        <v>2.23</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-barry-town/lf8ThTyL/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-caernarfon/thm8ooUf/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.31</v>
+        <v>5.42</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.47</v>
+        <v>7.34</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.61</v>
+        <v>7.82</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>6.54</v>
+        <v>12.46</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-colwyn-bay/8vk0m7ar/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-barry-town/lf8ThTyL/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.75</v>
+        <v>1.47</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.81</v>
+        <v>1.47</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.63</v>
+        <v>4.31</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.97</v>
+        <v>4.47</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.82</v>
+        <v>5.61</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.23</v>
+        <v>6.54</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-caernarfon/thm8ooUf/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-colwyn-bay/8vk0m7ar/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,374 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-bala/nVm4nREl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-haverfordwest/2cY27SjE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-pontypridd-united/vNeWk0Lt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:05</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:05</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-penybont/MooykKzm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45276.76041666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>14/12/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>14/12/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>14/12/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-cardiff-metropolitan-university/zitHqPb7/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>20.77</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.62</v>
+        <v>27.47</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.25</v>
+        <v>26.13</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>24/08/2023 22:12</t>
+          <t>24/08/2023 23:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.8</v>
+        <v>38.82</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:22</t>
+          <t>26/08/2023 15:05</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>20.77</v>
+        <v>3.52</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>27.47</v>
+        <v>3.66</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>26.13</v>
+        <v>2.84</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>38.82</v>
+        <v>3.07</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:05</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-barry-town/jkyIrUeN/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.66</v>
+        <v>3.62</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.84</v>
+        <v>4.25</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 23:42</t>
+          <t>24/08/2023 22:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.07</v>
+        <v>4.8</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:22</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-caernarfon/UZn9pjRA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-colwyn-bay/00r5oWB4/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.65</v>
+        <v>2.07</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.16</v>
+        <v>3.27</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.16</v>
+        <v>3.35</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.87</v>
+        <v>3.12</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>3.61</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 15:21</t>
+          <t>02/09/2023 15:15</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.07</v>
+        <v>2.64</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.12</v>
+        <v>2.79</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.61</v>
+        <v>2.53</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:15</t>
+          <t>02/09/2023 15:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-barry-town/byEUM7j1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Haverfordwest</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.52</v>
+        <v>3.16</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-haverfordwest/GCOPNmye/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-penybont/xMPLOTLl/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.44</v>
+        <v>4.25</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>5.47</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>09/09/2023 11:10</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.25</v>
+        <v>3.73</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.06</v>
+        <v>4.2</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.85</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>9.76</v>
+        <v>1.57</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>09/09/2023 15:24</t>
+          <t>09/09/2023 15:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>4.2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>09/09/2023 13:33</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.85</v>
+        <v>1.79</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>09/09/2023 15:06</t>
+          <t>09/09/2023 15:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>4.25</v>
+        <v>2.31</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5.47</v>
+        <v>2.43</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 13:33</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>2.78</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.57</v>
+        <v>2.85</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>09/09/2023 15:23</t>
+          <t>09/09/2023 15:06</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-connahs-q/4Y4KqVcE/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-newtown/M9aPrkDK/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.98</v>
+        <v>1.44</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.2</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 11:10</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.35</v>
+        <v>4.25</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.83</v>
+        <v>5.06</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.14</v>
+        <v>5.85</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.79</v>
+        <v>9.76</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 15:29</t>
+          <t>09/09/2023 15:24</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-caernarfon/Qs6GpBr8/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-colwyn-bay/00bTs9SQ/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.36</v>
+        <v>4.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.88</v>
+        <v>4.74</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.5</v>
+        <v>3.82</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.87</v>
+        <v>3.64</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>4.06</v>
+        <v>3.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6.32</v>
+        <v>3.88</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.06</v>
+        <v>3.87</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-newtown/GnuZlQZg/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Bala</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>4.5</v>
+        <v>4.06</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4.74</v>
+        <v>6.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.64</v>
+        <v>4.06</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 15:27</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-bala/AZ9Yjn5s/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-connahs-q/A9vwlpk0/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>TNS</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" t="n">
-        <v>16.08</v>
+        <v>2.71</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>14.33</v>
+        <v>3.15</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>10.4</v>
+        <v>3.15</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>9.050000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:40</t>
+          <t>26/09/2023 18:47</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.08</v>
+        <v>2.41</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/09/2023 20:39</t>
+          <t>26/09/2023 18:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 11:21</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.48</v>
+        <v>4.51</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.55</v>
+        <v>5.32</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/09/2023 19:55</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.09</v>
+        <v>6.32</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/09/2023 18:50</t>
+          <t>26/09/2023 20:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/09/2023 11:21</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.51</v>
+        <v>3.48</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5.32</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 19:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>6.32</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>9.220000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/09/2023 20:41</t>
+          <t>26/09/2023 18:50</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-barry-town/YsQX9RBJ/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-haverfordwest/6yYonOJC/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.71</v>
+        <v>16.08</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.15</v>
+        <v>14.33</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.15</v>
+        <v>10.4</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.26</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:47</t>
+          <t>26/09/2023 20:40</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.41</v>
+        <v>1.08</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/09/2023 18:24</t>
+          <t>26/09/2023 20:39</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-newtown/CYOy9oRP/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-tns/OCrsm446/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.34</v>
+        <v>2.87</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>4.16</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>30/09/2023 15:04</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.03</v>
+        <v>2.07</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>30/09/2023 14:34</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.03</v>
+        <v>3.08</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.04</v>
+        <v>4.07</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>30/09/2023 13:35</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>17.3</v>
+        <v>3.24</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>21.85</v>
+        <v>3.78</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 13:32</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>23.53</v>
+        <v>2.14</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>30.26</v>
+        <v>1.83</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>30/09/2023 15:08</t>
+          <t>30/09/2023 15:11</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.08</v>
+        <v>2.34</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4.07</v>
+        <v>2.28</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.78</v>
+        <v>3.45</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30/09/2023 13:32</t>
+          <t>30/09/2023 15:04</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.14</v>
+        <v>2.75</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.83</v>
+        <v>3.03</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>30/09/2023 15:11</t>
+          <t>30/09/2023 14:34</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-cardiff-metropolitan-university/OC4C2q4g/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-bala/bVdPaslC/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.87</v>
+        <v>1.03</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 13:35</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.43</v>
+        <v>17.3</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.16</v>
+        <v>21.85</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.22</v>
+        <v>23.53</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.07</v>
+        <v>30.26</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:08</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-caernarfon/Uk583Plm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-pontypridd-united/hhdTb13I/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>1.42</v>
+        <v>6.81</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.63</v>
+        <v>11.14</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.34</v>
+        <v>4.78</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.12</v>
+        <v>6.56</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>6.29</v>
+        <v>1.34</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.98</v>
+        <v>1.22</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>07/10/2023 15:22</t>
+          <t>07/10/2023 13:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.54</v>
+        <v>4.34</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.46</v>
+        <v>6.29</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.26</v>
+        <v>4.98</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>6.81</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>11.14</v>
+        <v>1.98</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.78</v>
+        <v>3.54</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>6.56</v>
+        <v>4.05</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.34</v>
+        <v>3.46</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.22</v>
+        <v>3.26</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>07/10/2023 13:52</t>
+          <t>07/10/2023 15:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-tns/dQOkG2Yh/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.39</v>
+        <v>2.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.36</v>
+        <v>3.14</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.39</v>
+        <v>3.28</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/10/2023 18:49</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>16/10/2023 16:42</t>
+          <t>16/10/2023 08:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.26</v>
+        <v>2.51</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/10/2023 20:24</t>
+          <t>17/10/2023 20:35</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.62</v>
+        <v>1.57</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.82</v>
+        <v>1.43</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.14</v>
+        <v>4.04</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.28</v>
+        <v>4.76</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.5</v>
+        <v>4.61</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.51</v>
+        <v>6.66</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-pontypridd-united/hhIbEt35/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.43</v>
+        <v>3.15</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.76</v>
+        <v>3.24</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.61</v>
+        <v>2.06</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>6.66</v>
+        <v>2.31</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>17/10/2023 20:35</t>
+          <t>17/10/2023 20:39</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-aberystwyth/nFH2D0IB/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
         </is>
       </c>
     </row>
@@ -6737,34 +6737,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -6772,36 +6772,36 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 18:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>16/10/2023 08:12</t>
+          <t>16/10/2023 16:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>17/10/2023 20:39</t>
+          <t>17/10/2023 20:24</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-newtown/Q5G6CKXH/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-penybont/K6YvfCHj/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>5.08</v>
+        <v>2.26</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>7.55</v>
+        <v>2.58</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.93</v>
+        <v>3.32</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.54</v>
+        <v>3.24</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.56</v>
+        <v>2.79</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.42</v>
+        <v>2.78</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:25</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.32</v>
+        <v>3.51</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.79</v>
+        <v>3.71</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.78</v>
+        <v>3.44</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
-        <v>1.86</v>
+        <v>7.91</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.05</v>
+        <v>22.29</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.51</v>
+        <v>6.09</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.59</v>
+        <v>10.48</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.71</v>
+        <v>1.23</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.44</v>
+        <v>1.09</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>7.91</v>
+        <v>5.08</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>22.29</v>
+        <v>7.55</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>6.09</v>
+        <v>3.93</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>10.48</v>
+        <v>4.54</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:25</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-connahs-q/raMoDiOS/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.71</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
       <c r="J79" t="n">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>3.71</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.74</v>
+        <v>7.29</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.69</v>
+        <v>8.68</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.68</v>
+        <v>5.68</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.07</v>
+        <v>5.96</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.91</v>
+        <v>1.27</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.5</v>
+        <v>1.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>7.29</v>
+        <v>4.39</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>8.68</v>
+        <v>5.35</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>5.68</v>
+        <v>3.87</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>5.96</v>
+        <v>4.1</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.68</v>
+        <v>4.07</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.72</v>
+        <v>3.91</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.74</v>
+        <v>4.5</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>1.6</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.62</v>
+        <v>1.57</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.34</v>
+        <v>3.75</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.77</v>
+        <v>3.68</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.38</v>
+        <v>4.72</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.44</v>
+        <v>6.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.35</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.87</v>
+        <v>3.34</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.1</v>
+        <v>3.77</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.6</v>
+        <v>2.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,48 +8692,48 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
+          <t>19/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
           <t>19/11/2023 15:29</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O90" t="inlineStr">
+      <c r="R90" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S90" t="inlineStr">
         <is>
           <t>17/11/2023 01:12</t>
         </is>
       </c>
-      <c r="P90" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q90" t="inlineStr">
+      <c r="T90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U90" t="inlineStr">
         <is>
           <t>19/11/2023 15:29</t>
         </is>
       </c>
-      <c r="R90" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>17/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T90" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:29</t>
-        </is>
-      </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>5.44</v>
+        <v>3.63</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>6.95</v>
+        <v>3.67</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>10.08</v>
+        <v>3.85</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>19/11/2023 15:20</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.51</v>
+        <v>4.07</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.22</v>
+        <v>4.18</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1.83</v>
+        <v>1.28</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.92</v>
+        <v>1.28</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.63</v>
+        <v>5.44</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.67</v>
+        <v>6.95</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.85</v>
+        <v>10.08</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.03</v>
+        <v>3.59</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.09</v>
+        <v>4.13</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.33</v>
+        <v>3.49</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>7.34</v>
+        <v>4.12</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-pontypridd-united/6cDVXRae/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-caernarfon/0YRYWoF1/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.44</v>
+        <v>3.43</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.61</v>
+        <v>3.31</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.23</v>
+        <v>3.58</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.05</v>
+        <v>3.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.62</v>
+        <v>1.88</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.89</v>
+        <v>2.11</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-cardiff-metropolitan-university/tU4Lfk78/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-penybont/S6ERY7pk/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>3.43</v>
+        <v>2.44</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.31</v>
+        <v>2.61</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.58</v>
+        <v>3.23</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.88</v>
+        <v>2.62</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.11</v>
+        <v>2.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-penybont/S6ERY7pk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-cardiff-metropolitan-university/tU4Lfk78/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.59</v>
+        <v>4.03</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.49</v>
+        <v>5.33</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.12</v>
+        <v>7.34</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-caernarfon/0YRYWoF1/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-pontypridd-united/6cDVXRae/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3.75</v>
+        <v>1.27</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.81</v>
+        <v>1.19</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.63</v>
+        <v>5.42</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.97</v>
+        <v>7.34</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.82</v>
+        <v>7.82</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.23</v>
+        <v>12.46</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-caernarfon/thm8ooUf/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-barry-town/lf8ThTyL/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>5.42</v>
+        <v>4.31</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>7.34</v>
+        <v>4.47</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>7.82</v>
+        <v>5.61</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>12.46</v>
+        <v>6.54</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/12/2023 15:26</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-barry-town/lf8ThTyL/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-colwyn-bay/8vk0m7ar/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.47</v>
+        <v>3.75</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.47</v>
+        <v>2.81</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.31</v>
+        <v>3.63</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.47</v>
+        <v>3.97</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>5.61</v>
+        <v>1.82</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>6.54</v>
+        <v>2.23</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-colwyn-bay/8vk0m7ar/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-caernarfon/thm8ooUf/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,1202 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-cardiff-metropolitan-university/zitHqPb7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45283.64583333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>7</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-tns/Sp7XimiR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45286.64583333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-penybont/zkkulvjg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45286.64583333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-bala/UBlqmb5a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45286.64583333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:40</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:40</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:40</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-barry-town/82mmnIK5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45286.64583333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-connahs-q/lE4poxzC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45286.64583333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:30</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:30</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:30</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-aberystwyth/S43lpdkI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45286.64583333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:41</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:41</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:41</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-caernarfon/MR2hqG4O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45290.64583333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-haverfordwest/zV6drzKU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45290.64583333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-newtown/2LK0mSGu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45290.64583333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-cardiff-metropolitan-university/tCJ4nnWo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45291.5625</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>31/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>31/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>31/12/2023 13:11</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-colwyn-bay/AoO8o6oh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45291.64583333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>31/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>31/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>31/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-tns/lxNCpQ0b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45291.64583333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Pontypridd</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>30/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>31/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>30/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>31/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>30/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>31/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-pontypridd-united/W0CHqpG4/</t>
         </is>
       </c>
     </row>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11681,6 +11681,98 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45296.875</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>15/12/2024 06:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>15/12/2024 06:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>15/12/2024 06:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-colwyn-bay/hSjCp5q1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/wales_cymru-premier_2023-2024.xlsx
+++ b/2023/wales_cymru-premier_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.42</v>
+        <v>1.88</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.34</v>
+        <v>3.54</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.29</v>
+        <v>3.46</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.98</v>
+        <v>3.26</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.54</v>
+        <v>4.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.46</v>
+        <v>6.29</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.26</v>
+        <v>4.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-caernarfon/IZPoHrJn/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-colwyn-bay/A9QsIO3t/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.32</v>
+        <v>3.51</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.79</v>
+        <v>3.71</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.78</v>
+        <v>3.44</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>1.86</v>
+        <v>7.91</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.05</v>
+        <v>22.29</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.51</v>
+        <v>6.09</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.59</v>
+        <v>10.48</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.71</v>
+        <v>1.23</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.44</v>
+        <v>1.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-haverfordwest/EJUUGZO3/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>7.91</v>
+        <v>2.26</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>22.29</v>
+        <v>2.58</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>6.09</v>
+        <v>3.32</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>10.48</v>
+        <v>3.24</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.23</v>
+        <v>2.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.09</v>
+        <v>2.78</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-tns/hATYFgvA/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-cardiff-metropolitan-university/MqYxFDgG/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>3.71</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:21</t>
+          <t>28/10/2023 15:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.71</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:22</t>
+          <t>28/10/2023 15:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-barry-town/hQHdVYwc/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-cardiff-metropolitan-university/QwG4TC89/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>7.29</v>
+        <v>1.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>8.68</v>
+        <v>1.57</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>5.68</v>
+        <v>3.75</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:13</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.27</v>
+        <v>4.72</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.29</v>
+        <v>6.74</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 15:10</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>4.39</v>
+        <v>1.74</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.35</v>
+        <v>1.69</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.87</v>
+        <v>3.68</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.62</v>
+        <v>3.91</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 14:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>1.69</v>
+        <v>2.62</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.75</v>
+        <v>3.34</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.64</v>
+        <v>3.77</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.07</v>
+        <v>2.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.26</v>
+        <v>2.44</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:24</t>
+          <t>04/11/2023 15:22</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.74</v>
+        <v>4.39</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.69</v>
+        <v>5.35</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.91</v>
+        <v>1.62</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 14:58</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-aberystwyth/M59DRjwM/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-connahs-q/hl0qMU0q/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.72</v>
+        <v>4.07</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.74</v>
+        <v>4.26</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:24</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/bala-pontypridd-united/vsK8SWNF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-colwyn-bay/WvamLlGk/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>7.29</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.62</v>
+        <v>8.68</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.34</v>
+        <v>5.68</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.77</v>
+        <v>5.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.44</v>
+        <v>1.29</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:22</t>
+          <t>04/11/2023 15:10</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-penybont/0d8HQAhS/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-tns/E3lhK8Ve/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/11/2023 15:20</t>
+          <t>19/11/2023 15:29</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.51</v>
+        <v>4.07</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.22</v>
+        <v>4.18</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.83</v>
+        <v>1.28</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.92</v>
+        <v>1.28</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.63</v>
+        <v>5.44</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.67</v>
+        <v>6.95</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.85</v>
+        <v>10.08</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>19/11/2023 15:28</t>
+          <t>19/11/2023 15:26</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,48 +8876,48 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>19/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>19/11/2023 15:29</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O92" t="inlineStr">
+      <c r="R92" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>17/11/2023 01:12</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q92" t="inlineStr">
+      <c r="T92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U92" t="inlineStr">
         <is>
           <t>19/11/2023 15:29</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>17/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:29</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-barry-town/vstvrCN2/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/penybont-newtown/z9ZntjhF/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>5.44</v>
+        <v>3.63</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>6.95</v>
+        <v>3.67</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>10.08</v>
+        <v>3.85</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>19/11/2023 15:26</t>
+          <t>19/11/2023 15:28</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/connahs-q-haverfordwest/IXvrsWx9/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-colwyn-bay/EaYjuA7L/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Haverfordwest</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.35</v>
+        <v>1.15</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.11</v>
+        <v>1.09</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>16/12/2023 15:23</t>
+          <t>16/12/2023 15:01</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.31</v>
+        <v>7.31</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.54</v>
+        <v>11.42</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>16/12/2023 15:23</t>
+          <t>16/12/2023 15:05</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.73</v>
+        <v>11.43</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.32</v>
+        <v>24.84</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>16/12/2023 15:23</t>
+          <t>16/12/2023 15:05</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-haverfordwest/2cY27SjE/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-penybont/MooykKzm/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.15</v>
+        <v>2.35</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.09</v>
+        <v>2.11</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>16/12/2023 15:01</t>
+          <t>16/12/2023 15:23</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>7.31</v>
+        <v>3.31</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>11.42</v>
+        <v>3.54</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>16/12/2023 15:05</t>
+          <t>16/12/2023 15:23</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>11.43</v>
+        <v>2.73</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>24.84</v>
+        <v>3.32</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>16/12/2023 15:05</t>
+          <t>16/12/2023 15:23</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-penybont/MooykKzm/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/caernarfon-haverfordwest/2cY27SjE/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.49</v>
+        <v>1.08</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>23/12/2023 01:12</t>
+          <t>24/12/2023 10:41</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3.06</v>
+        <v>1.1</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>26/12/2023 15:23</t>
+          <t>26/12/2023 15:25</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.09</v>
+        <v>11.59</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>23/12/2023 01:12</t>
+          <t>24/12/2023 10:41</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.04</v>
+        <v>9.73</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>26/12/2023 15:23</t>
+          <t>26/12/2023 15:26</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.71</v>
+        <v>12.84</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>23/12/2023 01:12</t>
+          <t>24/12/2023 10:41</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.49</v>
+        <v>21.29</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>26/12/2023 15:23</t>
+          <t>26/12/2023 15:26</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-penybont/zkkulvjg/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-caernarfon/MR2hqG4O/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pontypridd</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>4.25</v>
+        <v>1.99</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>23/12/2023 01:12</t>
+          <t>24/12/2023 18:30</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>3.4</v>
+        <v>1.97</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>26/12/2023 15:28</t>
+          <t>26/12/2023 15:27</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.54</v>
+        <v>3.43</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>23/12/2023 01:12</t>
+          <t>24/12/2023 18:30</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>26/12/2023 15:28</t>
+          <t>26/12/2023 15:27</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.74</v>
+        <v>3.37</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>23/12/2023 01:12</t>
+          <t>24/12/2023 18:30</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.06</v>
+        <v>4.08</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>26/12/2023 15:28</t>
+          <t>26/12/2023 15:27</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-bala/UBlqmb5a/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-aberystwyth/S43lpdkI/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>1.88</v>
+        <v>2.49</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>24/12/2023 10:40</t>
+          <t>23/12/2023 01:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.02</v>
+        <v>3.06</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>26/12/2023 15:28</t>
+          <t>26/12/2023 15:23</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>24/12/2023 10:40</t>
+          <t>23/12/2023 01:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.7</v>
+        <v>3.04</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>26/12/2023 15:28</t>
+          <t>26/12/2023 15:23</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.63</v>
+        <v>2.71</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>24/12/2023 10:40</t>
+          <t>23/12/2023 01:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.43</v>
+        <v>2.49</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>26/12/2023 15:28</t>
+          <t>26/12/2023 15:23</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-barry-town/82mmnIK5/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/cardiff-metropolitan-university-penybont/zkkulvjg/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.88</v>
+        <v>3.4</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>26/12/2023 15:21</t>
+          <t>26/12/2023 15:28</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.29</v>
+        <v>3.54</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>26/12/2023 15:21</t>
+          <t>26/12/2023 15:28</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>26/12/2023 15:21</t>
+          <t>26/12/2023 15:28</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-connahs-q/lE4poxzC/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/colwyn-bay-bala/UBlqmb5a/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Pontypridd</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>24/12/2023 18:30</t>
+          <t>24/12/2023 10:40</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>26/12/2023 15:27</t>
+          <t>26/12/2023 15:28</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:40</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>24/12/2023 10:40</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
         <v>3.43</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>24/12/2023 18:30</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>26/12/2023 15:27</t>
-        </is>
-      </c>
-      <c r="R115" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>24/12/2023 18:30</t>
-        </is>
-      </c>
-      <c r="T115" t="n">
-        <v>4.08</v>
-      </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>26/12/2023 15:27</t>
+          <t>26/12/2023 15:28</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/pontypridd-united-aberystwyth/S43lpdkI/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/haverfordwest-barry-town/82mmnIK5/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>2</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
       <c r="J116" t="n">
-        <v>1.08</v>
+        <v>3.18</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>24/12/2023 10:41</t>
+          <t>23/12/2023 01:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.1</v>
+        <v>3.88</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>26/12/2023 15:25</t>
+          <t>26/12/2023 15:21</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>11.59</v>
+        <v>3.29</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>24/12/2023 10:41</t>
+          <t>23/12/2023 01:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>9.73</v>
+        <v>3.65</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>26/12/2023 15:26</t>
+          <t>26/12/2023 15:21</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>12.84</v>
+        <v>2.11</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>24/12/2023 10:41</t>
+          <t>23/12/2023 01:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>21.29</v>
+        <v>1.9</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>26/12/2023 15:26</t>
+          <t>26/12/2023 15:21</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-caernarfon/MR2hqG4O/</t>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/newtown-connahs-q/lE4poxzC/</t>
         </is>
       </c>
     </row>
@@ -11770,6 +11770,190 @@
       <c r="V123" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/wales/cymru-premier/aberystwyth-colwyn-bay/hSjCp5q1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45297.64583333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:21</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:26</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:21</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/barry-town-newtown/EsuLrqED/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>wales</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>cymru-premier</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45297.64583333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>8</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:44</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:28</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>39.31</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:28</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/wales/cymru-premier/tns-cardiff-metropolitan-university/8MXfvUMR/</t>
         </is>
       </c>
     </row>
